--- a/animalchange/databron/dataa incl lijnshit.xlsx
+++ b/animalchange/databron/dataa incl lijnshit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobbo\OneDrive\Documenten\GitHub\Programmeerproject\animalchange\databron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="C1B5864D572AF59BAE173A953A6308A8196C1126" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{C2AA0FB9-46AA-4C73-9903-AA3E69E63079}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="C1B5864D572AF59BAE173A953A6308A8196C1126" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{1195D0AB-466D-4DEA-8C4D-8F3ED2B22E10}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{CF116155-2BF7-4728-BAFA-D04BDBBB0EA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>2000</t>
   </si>
@@ -146,12 +146,24 @@
   <si>
     <t>overigmens</t>
   </si>
+  <si>
+    <t>kipbedrijf</t>
+  </si>
+  <si>
+    <t>varkenbedrijf</t>
+  </si>
+  <si>
+    <t>kalkoenbedrijf</t>
+  </si>
+  <si>
+    <t>overigbedrijf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,12 +181,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="7"/>
@@ -203,14 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -530,7 +533,7 @@
   <dimension ref="A1:HT33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D11" sqref="D11:HQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3263,667 +3266,667 @@
         <v>34</v>
       </c>
       <c r="D5" s="2">
-        <v>18258</v>
+        <v>19135</v>
       </c>
       <c r="E5" s="2">
-        <v>16322</v>
+        <v>17084</v>
       </c>
       <c r="F5" s="2">
-        <v>15186</v>
+        <v>15870</v>
       </c>
       <c r="G5" s="2">
-        <v>13366</v>
+        <v>13763</v>
       </c>
       <c r="H5" s="2">
-        <v>12852</v>
+        <v>13377</v>
       </c>
       <c r="I5" s="2">
-        <v>12564</v>
+        <v>13115</v>
       </c>
       <c r="J5" s="2">
-        <v>11782</v>
+        <v>12260</v>
       </c>
       <c r="K5" s="2">
-        <v>11447</v>
+        <v>11889</v>
       </c>
       <c r="L5" s="2">
-        <v>10796</v>
+        <v>11214</v>
       </c>
       <c r="M5" s="2">
-        <v>10048</v>
+        <v>10435</v>
       </c>
       <c r="N5" s="2">
-        <v>9501</v>
+        <v>9885</v>
       </c>
       <c r="O5" s="2">
-        <v>8848</v>
+        <v>9193</v>
       </c>
       <c r="P5" s="2">
-        <v>8117</v>
+        <v>8427</v>
       </c>
       <c r="Q5" s="2">
-        <v>7682</v>
+        <v>7967</v>
       </c>
       <c r="R5" s="2">
-        <v>7249</v>
+        <v>7522</v>
       </c>
       <c r="S5" s="2">
-        <v>7046</v>
+        <v>7306</v>
       </c>
       <c r="T5" s="2">
-        <v>6560</v>
+        <v>6787</v>
       </c>
       <c r="U5" s="2">
+        <v>329</v>
+      </c>
+      <c r="V5" s="2">
         <v>320</v>
       </c>
-      <c r="V5" s="2">
-        <v>307</v>
-      </c>
       <c r="W5" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="X5" s="2">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="Y5" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="Z5" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AA5" s="2">
+        <v>248</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>246</v>
+      </c>
+      <c r="AC5" s="2">
         <v>240</v>
       </c>
-      <c r="AB5" s="2">
-        <v>240</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>235</v>
-      </c>
       <c r="AD5" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AE5" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AF5" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AG5" s="2">
+        <v>207</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>210</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>203</v>
+      </c>
+      <c r="AJ5" s="2">
         <v>200</v>
       </c>
-      <c r="AH5" s="2">
-        <v>201</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>191</v>
-      </c>
-      <c r="AJ5" s="2">
+      <c r="AK5" s="2">
         <v>189</v>
       </c>
-      <c r="AK5" s="2">
-        <v>181</v>
-      </c>
       <c r="AL5" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AM5" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AN5" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AO5" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AP5" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AQ5" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AR5" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AS5" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AT5" s="2">
+        <v>210</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>224</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>202</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>195</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>193</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>188</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>177</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>184</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>167</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>492</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>459</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>446</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>402</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>379</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>388</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>373</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>358</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>326</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>301</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>299</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>281</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>266</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>258</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>250</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>247</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>229</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>3315</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>2936</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>2720</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>2456</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>2320</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>2266</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>2109</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>2036</v>
+      </c>
+      <c r="CB5" s="2">
+        <v>1899</v>
+      </c>
+      <c r="CC5" s="2">
+        <v>1672</v>
+      </c>
+      <c r="CD5" s="2">
+        <v>1569</v>
+      </c>
+      <c r="CE5" s="2">
+        <v>1452</v>
+      </c>
+      <c r="CF5" s="2">
+        <v>1300</v>
+      </c>
+      <c r="CG5" s="2">
+        <v>1235</v>
+      </c>
+      <c r="CH5" s="2">
+        <v>1168</v>
+      </c>
+      <c r="CI5" s="2">
+        <v>1108</v>
+      </c>
+      <c r="CJ5" s="2">
+        <v>998</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>166</v>
+      </c>
+      <c r="CL5" s="2">
+        <v>163</v>
+      </c>
+      <c r="CM5" s="2">
+        <v>159</v>
+      </c>
+      <c r="CN5" s="2">
+        <v>142</v>
+      </c>
+      <c r="CO5" s="2">
+        <v>144</v>
+      </c>
+      <c r="CP5" s="2">
+        <v>134</v>
+      </c>
+      <c r="CQ5" s="2">
+        <v>130</v>
+      </c>
+      <c r="CR5" s="2">
+        <v>132</v>
+      </c>
+      <c r="CS5" s="2">
+        <v>124</v>
+      </c>
+      <c r="CT5" s="2">
+        <v>132</v>
+      </c>
+      <c r="CU5" s="2">
+        <v>132</v>
+      </c>
+      <c r="CV5" s="2">
+        <v>128</v>
+      </c>
+      <c r="CW5" s="2">
+        <v>120</v>
+      </c>
+      <c r="CX5" s="2">
+        <v>114</v>
+      </c>
+      <c r="CY5" s="2">
+        <v>111</v>
+      </c>
+      <c r="CZ5" s="2">
+        <v>115</v>
+      </c>
+      <c r="DA5" s="2">
+        <v>106</v>
+      </c>
+      <c r="DB5" s="2">
+        <v>5263</v>
+      </c>
+      <c r="DC5" s="2">
+        <v>4594</v>
+      </c>
+      <c r="DD5" s="2">
+        <v>4212</v>
+      </c>
+      <c r="DE5" s="2">
+        <v>3419</v>
+      </c>
+      <c r="DF5" s="2">
+        <v>3542</v>
+      </c>
+      <c r="DG5" s="2">
+        <v>3460</v>
+      </c>
+      <c r="DH5" s="2">
+        <v>3256</v>
+      </c>
+      <c r="DI5" s="2">
+        <v>3101</v>
+      </c>
+      <c r="DJ5" s="2">
+        <v>2904</v>
+      </c>
+      <c r="DK5" s="2">
+        <v>2667</v>
+      </c>
+      <c r="DL5" s="2">
+        <v>2503</v>
+      </c>
+      <c r="DM5" s="2">
+        <v>2286</v>
+      </c>
+      <c r="DN5" s="2">
+        <v>2080</v>
+      </c>
+      <c r="DO5" s="2">
+        <v>1943</v>
+      </c>
+      <c r="DP5" s="2">
+        <v>1822</v>
+      </c>
+      <c r="DQ5" s="2">
+        <v>1755</v>
+      </c>
+      <c r="DR5" s="2">
+        <v>1609</v>
+      </c>
+      <c r="DS5" s="2">
+        <v>1081</v>
+      </c>
+      <c r="DT5" s="2">
+        <v>932</v>
+      </c>
+      <c r="DU5" s="2">
+        <v>866</v>
+      </c>
+      <c r="DV5" s="2">
+        <v>731</v>
+      </c>
+      <c r="DW5" s="2">
+        <v>714</v>
+      </c>
+      <c r="DX5" s="2">
+        <v>711</v>
+      </c>
+      <c r="DY5" s="2">
+        <v>631</v>
+      </c>
+      <c r="DZ5" s="2">
+        <v>618</v>
+      </c>
+      <c r="EA5" s="2">
+        <v>557</v>
+      </c>
+      <c r="EB5" s="2">
+        <v>513</v>
+      </c>
+      <c r="EC5" s="2">
+        <v>490</v>
+      </c>
+      <c r="ED5" s="2">
+        <v>439</v>
+      </c>
+      <c r="EE5" s="2">
+        <v>399</v>
+      </c>
+      <c r="EF5" s="2">
+        <v>377</v>
+      </c>
+      <c r="EG5" s="2">
+        <v>353</v>
+      </c>
+      <c r="EH5" s="2">
+        <v>357</v>
+      </c>
+      <c r="EI5" s="2">
+        <v>305</v>
+      </c>
+      <c r="EJ5" s="2">
+        <v>184</v>
+      </c>
+      <c r="EK5" s="2">
+        <v>159</v>
+      </c>
+      <c r="EL5" s="2">
+        <v>164</v>
+      </c>
+      <c r="EM5" s="2">
+        <v>158</v>
+      </c>
+      <c r="EN5" s="2">
+        <v>135</v>
+      </c>
+      <c r="EO5" s="2">
+        <v>130</v>
+      </c>
+      <c r="EP5" s="2">
+        <v>129</v>
+      </c>
+      <c r="EQ5" s="2">
+        <v>126</v>
+      </c>
+      <c r="ER5" s="2">
+        <v>122</v>
+      </c>
+      <c r="ES5" s="2">
+        <v>110</v>
+      </c>
+      <c r="ET5" s="2">
+        <v>108</v>
+      </c>
+      <c r="EU5" s="2">
+        <v>110</v>
+      </c>
+      <c r="EV5" s="2">
+        <v>98</v>
+      </c>
+      <c r="EW5" s="2">
+        <v>101</v>
+      </c>
+      <c r="EX5" s="2">
+        <v>100</v>
+      </c>
+      <c r="EY5" s="2">
+        <v>102</v>
+      </c>
+      <c r="EZ5" s="2">
+        <v>91</v>
+      </c>
+      <c r="FA5" s="2">
+        <v>632</v>
+      </c>
+      <c r="FB5" s="2">
+        <v>565</v>
+      </c>
+      <c r="FC5" s="2">
+        <v>516</v>
+      </c>
+      <c r="FD5" s="2">
+        <v>462</v>
+      </c>
+      <c r="FE5" s="2">
+        <v>409</v>
+      </c>
+      <c r="FF5" s="2">
+        <v>390</v>
+      </c>
+      <c r="FG5" s="2">
+        <v>352</v>
+      </c>
+      <c r="FH5" s="2">
+        <v>342</v>
+      </c>
+      <c r="FI5" s="2">
+        <v>317</v>
+      </c>
+      <c r="FJ5" s="2">
+        <v>299</v>
+      </c>
+      <c r="FK5" s="2">
+        <v>282</v>
+      </c>
+      <c r="FL5" s="2">
+        <v>265</v>
+      </c>
+      <c r="FM5" s="2">
+        <v>241</v>
+      </c>
+      <c r="FN5" s="2">
+        <v>212</v>
+      </c>
+      <c r="FO5" s="2">
+        <v>194</v>
+      </c>
+      <c r="FP5" s="2">
+        <v>164</v>
+      </c>
+      <c r="FQ5" s="2">
+        <v>138</v>
+      </c>
+      <c r="FR5" s="2">
+        <v>228</v>
+      </c>
+      <c r="FS5" s="2">
         <v>207</v>
       </c>
-      <c r="AU5" s="2">
-        <v>219</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>196</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>192</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>189</v>
-      </c>
-      <c r="AY5" s="2">
-        <v>183</v>
-      </c>
-      <c r="AZ5" s="2">
-        <v>172</v>
-      </c>
-      <c r="BA5" s="2">
-        <v>179</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>163</v>
-      </c>
-      <c r="BC5" s="2">
-        <v>483</v>
-      </c>
-      <c r="BD5" s="2">
-        <v>450</v>
-      </c>
-      <c r="BE5" s="2">
-        <v>435</v>
-      </c>
-      <c r="BF5" s="2">
-        <v>393</v>
-      </c>
-      <c r="BG5" s="2">
-        <v>368</v>
-      </c>
-      <c r="BH5" s="2">
-        <v>375</v>
-      </c>
-      <c r="BI5" s="2">
-        <v>361</v>
-      </c>
-      <c r="BJ5" s="2">
-        <v>346</v>
-      </c>
-      <c r="BK5" s="2">
-        <v>313</v>
-      </c>
-      <c r="BL5" s="2">
-        <v>290</v>
-      </c>
-      <c r="BM5" s="2">
-        <v>289</v>
-      </c>
-      <c r="BN5" s="2">
-        <v>269</v>
-      </c>
-      <c r="BO5" s="2">
-        <v>255</v>
-      </c>
-      <c r="BP5" s="2">
-        <v>249</v>
-      </c>
-      <c r="BQ5" s="2">
-        <v>241</v>
-      </c>
-      <c r="BR5" s="2">
-        <v>237</v>
-      </c>
-      <c r="BS5" s="2">
-        <v>223</v>
-      </c>
-      <c r="BT5" s="2">
-        <v>3204</v>
-      </c>
-      <c r="BU5" s="2">
-        <v>2842</v>
-      </c>
-      <c r="BV5" s="2">
-        <v>2646</v>
-      </c>
-      <c r="BW5" s="2">
-        <v>2400</v>
-      </c>
-      <c r="BX5" s="2">
-        <v>2271</v>
-      </c>
-      <c r="BY5" s="2">
-        <v>2208</v>
-      </c>
-      <c r="BZ5" s="2">
-        <v>2057</v>
-      </c>
-      <c r="CA5" s="2">
-        <v>1991</v>
-      </c>
-      <c r="CB5" s="2">
-        <v>1846</v>
-      </c>
-      <c r="CC5" s="2">
-        <v>1632</v>
-      </c>
-      <c r="CD5" s="2">
-        <v>1534</v>
-      </c>
-      <c r="CE5" s="2">
-        <v>1420</v>
-      </c>
-      <c r="CF5" s="2">
-        <v>1268</v>
-      </c>
-      <c r="CG5" s="2">
-        <v>1207</v>
-      </c>
-      <c r="CH5" s="2">
-        <v>1143</v>
-      </c>
-      <c r="CI5" s="2">
-        <v>1085</v>
-      </c>
-      <c r="CJ5" s="2">
-        <v>980</v>
-      </c>
-      <c r="CK5" s="2">
-        <v>159</v>
-      </c>
-      <c r="CL5" s="2">
-        <v>158</v>
-      </c>
-      <c r="CM5" s="2">
-        <v>155</v>
-      </c>
-      <c r="CN5" s="2">
+      <c r="FT5" s="2">
+        <v>199</v>
+      </c>
+      <c r="FU5" s="2">
+        <v>174</v>
+      </c>
+      <c r="FV5" s="2">
+        <v>149</v>
+      </c>
+      <c r="FW5" s="2">
+        <v>150</v>
+      </c>
+      <c r="FX5" s="2">
         <v>138</v>
       </c>
-      <c r="CO5" s="2">
-        <v>135</v>
-      </c>
-      <c r="CP5" s="2">
-        <v>130</v>
-      </c>
-      <c r="CQ5" s="2">
-        <v>126</v>
-      </c>
-      <c r="CR5" s="2">
-        <v>129</v>
-      </c>
-      <c r="CS5" s="2">
+      <c r="FY5" s="2">
+        <v>144</v>
+      </c>
+      <c r="FZ5" s="2">
+        <v>128</v>
+      </c>
+      <c r="GA5" s="2">
         <v>120</v>
       </c>
-      <c r="CT5" s="2">
-        <v>127</v>
-      </c>
-      <c r="CU5" s="2">
-        <v>124</v>
-      </c>
-      <c r="CV5" s="2">
-        <v>121</v>
-      </c>
-      <c r="CW5" s="2">
-        <v>112</v>
-      </c>
-      <c r="CX5" s="2">
-        <v>108</v>
-      </c>
-      <c r="CY5" s="2">
-        <v>107</v>
-      </c>
-      <c r="CZ5" s="2">
-        <v>111</v>
-      </c>
-      <c r="DA5" s="2">
-        <v>102</v>
-      </c>
-      <c r="DB5" s="2">
-        <v>4907</v>
-      </c>
-      <c r="DC5" s="2">
-        <v>4300</v>
-      </c>
-      <c r="DD5" s="2">
-        <v>3939</v>
-      </c>
-      <c r="DE5" s="2">
-        <v>3313</v>
-      </c>
-      <c r="DF5" s="2">
-        <v>3331</v>
-      </c>
-      <c r="DG5" s="2">
-        <v>3246</v>
-      </c>
-      <c r="DH5" s="2">
-        <v>3059</v>
-      </c>
-      <c r="DI5" s="2">
-        <v>2928</v>
-      </c>
-      <c r="DJ5" s="2">
-        <v>2758</v>
-      </c>
-      <c r="DK5" s="2">
-        <v>2538</v>
-      </c>
-      <c r="DL5" s="2">
-        <v>2369</v>
-      </c>
-      <c r="DM5" s="2">
+      <c r="GB5" s="2">
+        <v>110</v>
+      </c>
+      <c r="GC5" s="2">
+        <v>101</v>
+      </c>
+      <c r="GD5" s="2">
+        <v>99</v>
+      </c>
+      <c r="GE5" s="2">
+        <v>90</v>
+      </c>
+      <c r="GF5" s="2">
+        <v>93</v>
+      </c>
+      <c r="GG5" s="2">
+        <v>86</v>
+      </c>
+      <c r="GH5" s="2">
+        <v>90</v>
+      </c>
+      <c r="GI5" s="2">
+        <v>5361</v>
+      </c>
+      <c r="GJ5" s="2">
+        <v>4841</v>
+      </c>
+      <c r="GK5" s="2">
+        <v>4499</v>
+      </c>
+      <c r="GL5" s="2">
+        <v>3974</v>
+      </c>
+      <c r="GM5" s="2">
+        <v>3795</v>
+      </c>
+      <c r="GN5" s="2">
+        <v>3754</v>
+      </c>
+      <c r="GO5" s="2">
+        <v>3534</v>
+      </c>
+      <c r="GP5" s="2">
+        <v>3433</v>
+      </c>
+      <c r="GQ5" s="2">
+        <v>3307</v>
+      </c>
+      <c r="GR5" s="2">
+        <v>3140</v>
+      </c>
+      <c r="GS5" s="2">
+        <v>2979</v>
+      </c>
+      <c r="GT5" s="2">
+        <v>2802</v>
+      </c>
+      <c r="GU5" s="2">
+        <v>2580</v>
+      </c>
+      <c r="GV5" s="2">
+        <v>2446</v>
+      </c>
+      <c r="GW5" s="2">
+        <v>2306</v>
+      </c>
+      <c r="GX5" s="2">
+        <v>2275</v>
+      </c>
+      <c r="GY5" s="2">
         <v>2169</v>
       </c>
-      <c r="DN5" s="2">
-        <v>1978</v>
-      </c>
-      <c r="DO5" s="2">
-        <v>1855</v>
-      </c>
-      <c r="DP5" s="2">
-        <v>1738</v>
-      </c>
-      <c r="DQ5" s="2">
-        <v>1672</v>
-      </c>
-      <c r="DR5" s="2">
-        <v>1537</v>
-      </c>
-      <c r="DS5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="DT5" s="2">
-        <v>866</v>
-      </c>
-      <c r="DU5" s="2">
-        <v>808</v>
-      </c>
-      <c r="DV5" s="2">
-        <v>703</v>
-      </c>
-      <c r="DW5" s="2">
-        <v>672</v>
-      </c>
-      <c r="DX5" s="2">
-        <v>659</v>
-      </c>
-      <c r="DY5" s="2">
-        <v>590</v>
-      </c>
-      <c r="DZ5" s="2">
-        <v>577</v>
-      </c>
-      <c r="EA5" s="2">
-        <v>524</v>
-      </c>
-      <c r="EB5" s="2">
-        <v>479</v>
-      </c>
-      <c r="EC5" s="2">
-        <v>454</v>
-      </c>
-      <c r="ED5" s="2">
-        <v>409</v>
-      </c>
-      <c r="EE5" s="2">
-        <v>370</v>
-      </c>
-      <c r="EF5" s="2">
-        <v>346</v>
-      </c>
-      <c r="EG5" s="2">
-        <v>322</v>
-      </c>
-      <c r="EH5" s="2">
-        <v>326</v>
-      </c>
-      <c r="EI5" s="2">
-        <v>281</v>
-      </c>
-      <c r="EJ5" s="2">
-        <v>176</v>
-      </c>
-      <c r="EK5" s="2">
-        <v>149</v>
-      </c>
-      <c r="EL5" s="2">
-        <v>156</v>
-      </c>
-      <c r="EM5" s="2">
-        <v>147</v>
-      </c>
-      <c r="EN5" s="2">
-        <v>128</v>
-      </c>
-      <c r="EO5" s="2">
-        <v>125</v>
-      </c>
-      <c r="EP5" s="2">
-        <v>122</v>
-      </c>
-      <c r="EQ5" s="2">
-        <v>116</v>
-      </c>
-      <c r="ER5" s="2">
-        <v>108</v>
-      </c>
-      <c r="ES5" s="2">
-        <v>99</v>
-      </c>
-      <c r="ET5" s="2">
-        <v>95</v>
-      </c>
-      <c r="EU5" s="2">
-        <v>98</v>
-      </c>
-      <c r="EV5" s="2">
-        <v>90</v>
-      </c>
-      <c r="EW5" s="2">
-        <v>96</v>
-      </c>
-      <c r="EX5" s="2">
-        <v>92</v>
-      </c>
-      <c r="EY5" s="2">
-        <v>92</v>
-      </c>
-      <c r="EZ5" s="2">
-        <v>84</v>
-      </c>
-      <c r="FA5" s="2">
-        <v>607</v>
-      </c>
-      <c r="FB5" s="2">
-        <v>538</v>
-      </c>
-      <c r="FC5" s="2">
-        <v>495</v>
-      </c>
-      <c r="FD5" s="2">
-        <v>436</v>
-      </c>
-      <c r="FE5" s="2">
-        <v>380</v>
-      </c>
-      <c r="FF5" s="2">
-        <v>358</v>
-      </c>
-      <c r="FG5" s="2">
-        <v>329</v>
-      </c>
-      <c r="FH5" s="2">
-        <v>322</v>
-      </c>
-      <c r="FI5" s="2">
-        <v>293</v>
-      </c>
-      <c r="FJ5" s="2">
-        <v>274</v>
-      </c>
-      <c r="FK5" s="2">
-        <v>253</v>
-      </c>
-      <c r="FL5" s="2">
-        <v>240</v>
-      </c>
-      <c r="FM5" s="2">
-        <v>218</v>
-      </c>
-      <c r="FN5" s="2">
-        <v>189</v>
-      </c>
-      <c r="FO5" s="2">
-        <v>174</v>
-      </c>
-      <c r="FP5" s="2">
-        <v>151</v>
-      </c>
-      <c r="FQ5" s="2">
-        <v>129</v>
-      </c>
-      <c r="FR5" s="2">
-        <v>222</v>
-      </c>
-      <c r="FS5" s="2">
-        <v>204</v>
-      </c>
-      <c r="FT5" s="2">
-        <v>197</v>
-      </c>
-      <c r="FU5" s="2">
-        <v>169</v>
-      </c>
-      <c r="FV5" s="2">
-        <v>145</v>
-      </c>
-      <c r="FW5" s="2">
-        <v>146</v>
-      </c>
-      <c r="FX5" s="2">
-        <v>133</v>
-      </c>
-      <c r="FY5" s="2">
-        <v>139</v>
-      </c>
-      <c r="FZ5" s="2">
-        <v>125</v>
-      </c>
-      <c r="GA5" s="2">
-        <v>116</v>
-      </c>
-      <c r="GB5" s="2">
-        <v>109</v>
-      </c>
-      <c r="GC5" s="2">
-        <v>99</v>
-      </c>
-      <c r="GD5" s="2">
-        <v>97</v>
-      </c>
-      <c r="GE5" s="2">
-        <v>89</v>
-      </c>
-      <c r="GF5" s="2">
-        <v>90</v>
-      </c>
-      <c r="GG5" s="2">
-        <v>85</v>
-      </c>
-      <c r="GH5" s="2">
-        <v>87</v>
-      </c>
-      <c r="GI5" s="2">
-        <v>5185</v>
-      </c>
-      <c r="GJ5" s="2">
-        <v>4686</v>
-      </c>
-      <c r="GK5" s="2">
-        <v>4363</v>
-      </c>
-      <c r="GL5" s="2">
-        <v>3891</v>
-      </c>
-      <c r="GM5" s="2">
-        <v>3700</v>
-      </c>
-      <c r="GN5" s="2">
-        <v>3651</v>
-      </c>
-      <c r="GO5" s="2">
-        <v>3453</v>
-      </c>
-      <c r="GP5" s="2">
-        <v>3350</v>
-      </c>
-      <c r="GQ5" s="2">
-        <v>3228</v>
-      </c>
-      <c r="GR5" s="2">
-        <v>3062</v>
-      </c>
-      <c r="GS5" s="2">
-        <v>2911</v>
-      </c>
-      <c r="GT5" s="2">
-        <v>2738</v>
-      </c>
-      <c r="GU5" s="2">
-        <v>2523</v>
-      </c>
-      <c r="GV5" s="2">
-        <v>2390</v>
-      </c>
-      <c r="GW5" s="2">
-        <v>2252</v>
-      </c>
-      <c r="GX5" s="2">
-        <v>2219</v>
-      </c>
-      <c r="GY5" s="2">
-        <v>2114</v>
-      </c>
       <c r="GZ5" s="2">
-        <v>1669</v>
+        <v>1756</v>
       </c>
       <c r="HA5" s="2">
-        <v>1538</v>
+        <v>1619</v>
       </c>
       <c r="HB5" s="2">
-        <v>1419</v>
+        <v>1495</v>
       </c>
       <c r="HC5" s="2">
+        <v>1318</v>
+      </c>
+      <c r="HD5" s="2">
         <v>1269</v>
       </c>
-      <c r="HD5" s="2">
-        <v>1220</v>
-      </c>
       <c r="HE5" s="2">
-        <v>1175</v>
+        <v>1226</v>
       </c>
       <c r="HF5" s="2">
-        <v>1094</v>
+        <v>1136</v>
       </c>
       <c r="HG5" s="2">
-        <v>1084</v>
+        <v>1124</v>
       </c>
       <c r="HH5" s="2">
-        <v>1039</v>
+        <v>1080</v>
       </c>
       <c r="HI5" s="2">
-        <v>990</v>
+        <v>1029</v>
       </c>
       <c r="HJ5" s="2">
-        <v>944</v>
+        <v>979</v>
       </c>
       <c r="HK5" s="2">
-        <v>879</v>
+        <v>913</v>
       </c>
       <c r="HL5" s="2">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="HM5" s="2">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="HN5" s="2">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="HO5" s="2">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="HP5" s="2">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="HQ5" s="2"/>
       <c r="HR5" s="2"/>
@@ -7307,7 +7310,673 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14523</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12821</v>
+      </c>
+      <c r="F11" s="2">
+        <v>11851</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10730</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10038</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9686</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9041</v>
+      </c>
+      <c r="K11" s="2">
+        <v>8692</v>
+      </c>
+      <c r="L11" s="2">
+        <v>8249</v>
+      </c>
+      <c r="M11" s="2">
+        <v>7567</v>
+      </c>
+      <c r="N11" s="2">
+        <v>7030</v>
+      </c>
+      <c r="O11" s="2">
+        <v>6525</v>
+      </c>
+      <c r="P11" s="2">
+        <v>5918</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>5528</v>
+      </c>
+      <c r="R11" s="2">
+        <v>5108</v>
+      </c>
+      <c r="S11" s="2">
+        <v>4928</v>
+      </c>
+      <c r="T11" s="2">
+        <v>4508</v>
+      </c>
+      <c r="U11" s="2">
+        <v>166</v>
+      </c>
+      <c r="V11" s="2">
+        <v>152</v>
+      </c>
+      <c r="W11" s="2">
+        <v>148</v>
+      </c>
+      <c r="X11" s="2">
+        <v>139</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>133</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>127</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>115</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>107</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>103</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>135</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>125</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>106</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>102</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>99</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>90</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>91</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>80</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>85</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>75</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>69</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>69</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>71</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>57</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>60</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>51</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>292</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>262</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>249</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>227</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>214</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>209</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>201</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>188</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>168</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>154</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>151</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>143</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>130</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>133</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>122</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>122</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>100</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>2782</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>2424</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>2243</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>2047</v>
+      </c>
+      <c r="BX11" s="2">
+        <v>1934</v>
+      </c>
+      <c r="BY11" s="2">
+        <v>1861</v>
+      </c>
+      <c r="BZ11" s="2">
+        <v>1724</v>
+      </c>
+      <c r="CA11" s="2">
+        <v>1657</v>
+      </c>
+      <c r="CB11" s="2">
+        <v>1535</v>
+      </c>
+      <c r="CC11" s="2">
+        <v>1335</v>
+      </c>
+      <c r="CD11" s="2">
+        <v>1237</v>
+      </c>
+      <c r="CE11" s="2">
+        <v>1143</v>
+      </c>
+      <c r="CF11" s="2">
+        <v>1011</v>
+      </c>
+      <c r="CG11" s="2">
+        <v>944</v>
+      </c>
+      <c r="CH11" s="2">
+        <v>875</v>
+      </c>
+      <c r="CI11" s="2">
+        <v>825</v>
+      </c>
+      <c r="CJ11" s="2">
+        <v>726</v>
+      </c>
+      <c r="CK11" s="2">
+        <v>64</v>
+      </c>
+      <c r="CL11" s="2">
+        <v>58</v>
+      </c>
+      <c r="CM11" s="2">
+        <v>60</v>
+      </c>
+      <c r="CN11" s="2">
+        <v>54</v>
+      </c>
+      <c r="CO11" s="2">
+        <v>55</v>
+      </c>
+      <c r="CP11" s="2">
+        <v>44</v>
+      </c>
+      <c r="CQ11" s="2">
+        <v>47</v>
+      </c>
+      <c r="CR11" s="2">
+        <v>43</v>
+      </c>
+      <c r="CS11" s="2">
+        <v>44</v>
+      </c>
+      <c r="CT11" s="2">
+        <v>47</v>
+      </c>
+      <c r="CU11" s="2">
+        <v>47</v>
+      </c>
+      <c r="CV11" s="2">
+        <v>43</v>
+      </c>
+      <c r="CW11" s="2">
+        <v>39</v>
+      </c>
+      <c r="CX11" s="2">
+        <v>37</v>
+      </c>
+      <c r="CY11" s="2">
+        <v>36</v>
+      </c>
+      <c r="CZ11" s="2">
+        <v>36</v>
+      </c>
+      <c r="DA11" s="2">
+        <v>30</v>
+      </c>
+      <c r="DB11" s="2">
+        <v>4003</v>
+      </c>
+      <c r="DC11" s="2">
+        <v>3452</v>
+      </c>
+      <c r="DD11" s="2">
+        <v>3160</v>
+      </c>
+      <c r="DE11" s="2">
+        <v>2851</v>
+      </c>
+      <c r="DF11" s="2">
+        <v>2666</v>
+      </c>
+      <c r="DG11" s="2">
+        <v>2575</v>
+      </c>
+      <c r="DH11" s="2">
+        <v>2423</v>
+      </c>
+      <c r="DI11" s="2">
+        <v>2299</v>
+      </c>
+      <c r="DJ11" s="2">
+        <v>2176</v>
+      </c>
+      <c r="DK11" s="2">
+        <v>1964</v>
+      </c>
+      <c r="DL11" s="2">
+        <v>1786</v>
+      </c>
+      <c r="DM11" s="2">
+        <v>1635</v>
+      </c>
+      <c r="DN11" s="2">
+        <v>1471</v>
+      </c>
+      <c r="DO11" s="2">
+        <v>1348</v>
+      </c>
+      <c r="DP11" s="2">
+        <v>1237</v>
+      </c>
+      <c r="DQ11" s="2">
+        <v>1187</v>
+      </c>
+      <c r="DR11" s="2">
+        <v>1062</v>
+      </c>
+      <c r="DS11" s="2">
+        <v>872</v>
+      </c>
+      <c r="DT11" s="2">
+        <v>754</v>
+      </c>
+      <c r="DU11" s="2">
+        <v>699</v>
+      </c>
+      <c r="DV11" s="2">
+        <v>638</v>
+      </c>
+      <c r="DW11" s="2">
+        <v>578</v>
+      </c>
+      <c r="DX11" s="2">
+        <v>573</v>
+      </c>
+      <c r="DY11" s="2">
+        <v>513</v>
+      </c>
+      <c r="DZ11" s="2">
+        <v>489</v>
+      </c>
+      <c r="EA11" s="2">
+        <v>444</v>
+      </c>
+      <c r="EB11" s="2">
+        <v>394</v>
+      </c>
+      <c r="EC11" s="2">
+        <v>365</v>
+      </c>
+      <c r="ED11" s="2">
+        <v>321</v>
+      </c>
+      <c r="EE11" s="2">
+        <v>288</v>
+      </c>
+      <c r="EF11" s="2">
+        <v>262</v>
+      </c>
+      <c r="EG11" s="2">
+        <v>244</v>
+      </c>
+      <c r="EH11" s="2">
+        <v>241</v>
+      </c>
+      <c r="EI11" s="2">
+        <v>203</v>
+      </c>
+      <c r="EJ11" s="2">
+        <v>84</v>
+      </c>
+      <c r="EK11" s="2">
+        <v>77</v>
+      </c>
+      <c r="EL11" s="2">
+        <v>81</v>
+      </c>
+      <c r="EM11" s="2">
+        <v>79</v>
+      </c>
+      <c r="EN11" s="2">
+        <v>61</v>
+      </c>
+      <c r="EO11" s="2">
+        <v>57</v>
+      </c>
+      <c r="EP11" s="2">
+        <v>58</v>
+      </c>
+      <c r="EQ11" s="2">
+        <v>59</v>
+      </c>
+      <c r="ER11" s="2">
+        <v>50</v>
+      </c>
+      <c r="ES11" s="2">
+        <v>46</v>
+      </c>
+      <c r="ET11" s="2">
+        <v>45</v>
+      </c>
+      <c r="EU11" s="2">
+        <v>42</v>
+      </c>
+      <c r="EV11" s="2">
+        <v>42</v>
+      </c>
+      <c r="EW11" s="2">
+        <v>44</v>
+      </c>
+      <c r="EX11" s="2">
+        <v>41</v>
+      </c>
+      <c r="EY11" s="2">
+        <v>37</v>
+      </c>
+      <c r="EZ11" s="2">
+        <v>37</v>
+      </c>
+      <c r="FA11" s="2">
+        <v>499</v>
+      </c>
+      <c r="FB11" s="2">
+        <v>440</v>
+      </c>
+      <c r="FC11" s="2">
+        <v>396</v>
+      </c>
+      <c r="FD11" s="2">
+        <v>362</v>
+      </c>
+      <c r="FE11" s="2">
+        <v>310</v>
+      </c>
+      <c r="FF11" s="2">
+        <v>289</v>
+      </c>
+      <c r="FG11" s="2">
+        <v>271</v>
+      </c>
+      <c r="FH11" s="2">
+        <v>263</v>
+      </c>
+      <c r="FI11" s="2">
+        <v>247</v>
+      </c>
+      <c r="FJ11" s="2">
+        <v>223</v>
+      </c>
+      <c r="FK11" s="2">
+        <v>207</v>
+      </c>
+      <c r="FL11" s="2">
+        <v>194</v>
+      </c>
+      <c r="FM11" s="2">
+        <v>174</v>
+      </c>
+      <c r="FN11" s="2">
+        <v>155</v>
+      </c>
+      <c r="FO11" s="2">
+        <v>145</v>
+      </c>
+      <c r="FP11" s="2">
+        <v>122</v>
+      </c>
+      <c r="FQ11" s="2">
+        <v>105</v>
+      </c>
+      <c r="FR11" s="2">
+        <v>127</v>
+      </c>
+      <c r="FS11" s="2">
+        <v>118</v>
+      </c>
+      <c r="FT11" s="2">
+        <v>108</v>
+      </c>
+      <c r="FU11" s="2">
+        <v>83</v>
+      </c>
+      <c r="FV11" s="2">
+        <v>74</v>
+      </c>
+      <c r="FW11" s="2">
+        <v>67</v>
+      </c>
+      <c r="FX11" s="2">
+        <v>63</v>
+      </c>
+      <c r="FY11" s="2">
+        <v>66</v>
+      </c>
+      <c r="FZ11" s="2">
+        <v>64</v>
+      </c>
+      <c r="GA11" s="2">
+        <v>56</v>
+      </c>
+      <c r="GB11" s="2">
+        <v>50</v>
+      </c>
+      <c r="GC11" s="2">
+        <v>44</v>
+      </c>
+      <c r="GD11" s="2">
+        <v>43</v>
+      </c>
+      <c r="GE11" s="2">
+        <v>38</v>
+      </c>
+      <c r="GF11" s="2">
+        <v>35</v>
+      </c>
+      <c r="GG11" s="2">
+        <v>34</v>
+      </c>
+      <c r="GH11" s="2">
+        <v>37</v>
+      </c>
+      <c r="GI11" s="2">
+        <v>4270</v>
+      </c>
+      <c r="GJ11" s="2">
+        <v>3844</v>
+      </c>
+      <c r="GK11" s="2">
+        <v>3543</v>
+      </c>
+      <c r="GL11" s="2">
+        <v>3193</v>
+      </c>
+      <c r="GM11" s="2">
+        <v>3010</v>
+      </c>
+      <c r="GN11" s="2">
+        <v>2939</v>
+      </c>
+      <c r="GO11" s="2">
+        <v>2759</v>
+      </c>
+      <c r="GP11" s="2">
+        <v>2665</v>
+      </c>
+      <c r="GQ11" s="2">
+        <v>2606</v>
+      </c>
+      <c r="GR11" s="2">
+        <v>2469</v>
+      </c>
+      <c r="GS11" s="2">
+        <v>2313</v>
+      </c>
+      <c r="GT11" s="2">
+        <v>2176</v>
+      </c>
+      <c r="GU11" s="2">
+        <v>1991</v>
+      </c>
+      <c r="GV11" s="2">
+        <v>1880</v>
+      </c>
+      <c r="GW11" s="2">
+        <v>1747</v>
+      </c>
+      <c r="GX11" s="2">
+        <v>1703</v>
+      </c>
+      <c r="GY11" s="2">
+        <v>1632</v>
+      </c>
+      <c r="GZ11" s="2">
+        <v>1209</v>
+      </c>
+      <c r="HA11" s="2">
+        <v>1105</v>
+      </c>
+      <c r="HB11" s="2">
+        <v>1039</v>
+      </c>
+      <c r="HC11" s="2">
+        <v>951</v>
+      </c>
+      <c r="HD11" s="2">
+        <v>901</v>
+      </c>
+      <c r="HE11" s="2">
+        <v>846</v>
+      </c>
+      <c r="HF11" s="2">
+        <v>777</v>
+      </c>
+      <c r="HG11" s="2">
+        <v>758</v>
+      </c>
+      <c r="HH11" s="2">
+        <v>728</v>
+      </c>
+      <c r="HI11" s="2">
+        <v>691</v>
+      </c>
+      <c r="HJ11" s="2">
+        <v>648</v>
+      </c>
+      <c r="HK11" s="2">
+        <v>613</v>
+      </c>
+      <c r="HL11" s="2">
+        <v>566</v>
+      </c>
+      <c r="HM11" s="2">
+        <v>521</v>
+      </c>
+      <c r="HN11" s="2">
+        <v>483</v>
+      </c>
+      <c r="HO11" s="2">
+        <v>471</v>
+      </c>
+      <c r="HP11" s="2">
+        <v>448</v>
+      </c>
+      <c r="HQ11" s="2"/>
     </row>
     <row r="12" spans="1:228" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -7316,7 +7985,673 @@
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3860</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3560</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3358</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2446</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2768</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2841</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2662</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2686</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2496</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2402</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2431</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2266</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2141</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2093</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2067</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2049</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1965</v>
+      </c>
+      <c r="U12" s="2">
+        <v>146</v>
+      </c>
+      <c r="V12" s="2">
+        <v>147</v>
+      </c>
+      <c r="W12" s="2">
+        <v>147</v>
+      </c>
+      <c r="X12" s="2">
+        <v>124</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>129</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>129</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>121</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>123</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>124</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>111</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>105</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>109</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>144</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>146</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>126</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>128</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>128</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>126</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>131</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>126</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>132</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>121</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>119</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>116</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>110</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>113</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>118</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>110</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>184</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>180</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>181</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>157</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>148</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>162</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>155</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>154</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>142</v>
+      </c>
+      <c r="BL12" s="2">
+        <v>132</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>136</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>125</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>128</v>
+      </c>
+      <c r="BP12" s="2">
+        <v>119</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>120</v>
+      </c>
+      <c r="BR12" s="2">
+        <v>117</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>123</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>464</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>445</v>
+      </c>
+      <c r="BV12" s="2">
+        <v>420</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>355</v>
+      </c>
+      <c r="BX12" s="2">
+        <v>338</v>
+      </c>
+      <c r="BY12" s="2">
+        <v>351</v>
+      </c>
+      <c r="BZ12" s="2">
+        <v>326</v>
+      </c>
+      <c r="CA12" s="2">
+        <v>337</v>
+      </c>
+      <c r="CB12" s="2">
+        <v>325</v>
+      </c>
+      <c r="CC12" s="2">
+        <v>301</v>
+      </c>
+      <c r="CD12" s="2">
+        <v>297</v>
+      </c>
+      <c r="CE12" s="2">
+        <v>280</v>
+      </c>
+      <c r="CF12" s="2">
+        <v>259</v>
+      </c>
+      <c r="CG12" s="2">
+        <v>264</v>
+      </c>
+      <c r="CH12" s="2">
+        <v>265</v>
+      </c>
+      <c r="CI12" s="2">
+        <v>260</v>
+      </c>
+      <c r="CJ12" s="2">
+        <v>250</v>
+      </c>
+      <c r="CK12" s="2">
+        <v>80</v>
+      </c>
+      <c r="CL12" s="2">
+        <v>81</v>
+      </c>
+      <c r="CM12" s="2">
+        <v>74</v>
+      </c>
+      <c r="CN12" s="2">
+        <v>66</v>
+      </c>
+      <c r="CO12" s="2">
+        <v>64</v>
+      </c>
+      <c r="CP12" s="2">
+        <v>64</v>
+      </c>
+      <c r="CQ12" s="2">
+        <v>59</v>
+      </c>
+      <c r="CR12" s="2">
+        <v>64</v>
+      </c>
+      <c r="CS12" s="2">
+        <v>57</v>
+      </c>
+      <c r="CT12" s="2">
+        <v>63</v>
+      </c>
+      <c r="CU12" s="2">
+        <v>64</v>
+      </c>
+      <c r="CV12" s="2">
+        <v>67</v>
+      </c>
+      <c r="CW12" s="2">
+        <v>62</v>
+      </c>
+      <c r="CX12" s="2">
+        <v>61</v>
+      </c>
+      <c r="CY12" s="2">
+        <v>60</v>
+      </c>
+      <c r="CZ12" s="2">
+        <v>64</v>
+      </c>
+      <c r="DA12" s="2">
+        <v>62</v>
+      </c>
+      <c r="DB12" s="2">
+        <v>1058</v>
+      </c>
+      <c r="DC12" s="2">
+        <v>964</v>
+      </c>
+      <c r="DD12" s="2">
+        <v>879</v>
+      </c>
+      <c r="DE12" s="2">
+        <v>431</v>
+      </c>
+      <c r="DF12" s="2">
+        <v>749</v>
+      </c>
+      <c r="DG12" s="2">
+        <v>738</v>
+      </c>
+      <c r="DH12" s="2">
+        <v>692</v>
+      </c>
+      <c r="DI12" s="2">
+        <v>671</v>
+      </c>
+      <c r="DJ12" s="2">
+        <v>612</v>
+      </c>
+      <c r="DK12" s="2">
+        <v>595</v>
+      </c>
+      <c r="DL12" s="2">
+        <v>608</v>
+      </c>
+      <c r="DM12" s="2">
+        <v>551</v>
+      </c>
+      <c r="DN12" s="2">
+        <v>517</v>
+      </c>
+      <c r="DO12" s="2">
+        <v>510</v>
+      </c>
+      <c r="DP12" s="2">
+        <v>497</v>
+      </c>
+      <c r="DQ12" s="2">
+        <v>483</v>
+      </c>
+      <c r="DR12" s="2">
+        <v>459</v>
+      </c>
+      <c r="DS12" s="2">
+        <v>187</v>
+      </c>
+      <c r="DT12" s="2">
+        <v>160</v>
+      </c>
+      <c r="DU12" s="2">
+        <v>152</v>
+      </c>
+      <c r="DV12" s="2">
+        <v>81</v>
+      </c>
+      <c r="DW12" s="2">
+        <v>125</v>
+      </c>
+      <c r="DX12" s="2">
+        <v>124</v>
+      </c>
+      <c r="DY12" s="2">
+        <v>109</v>
+      </c>
+      <c r="DZ12" s="2">
+        <v>118</v>
+      </c>
+      <c r="EA12" s="2">
+        <v>102</v>
+      </c>
+      <c r="EB12" s="2">
+        <v>106</v>
+      </c>
+      <c r="EC12" s="2">
+        <v>120</v>
+      </c>
+      <c r="ED12" s="2">
+        <v>108</v>
+      </c>
+      <c r="EE12" s="2">
+        <v>104</v>
+      </c>
+      <c r="EF12" s="2">
+        <v>108</v>
+      </c>
+      <c r="EG12" s="2">
+        <v>99</v>
+      </c>
+      <c r="EH12" s="2">
+        <v>107</v>
+      </c>
+      <c r="EI12" s="2">
+        <v>97</v>
+      </c>
+      <c r="EJ12" s="2">
+        <v>90</v>
+      </c>
+      <c r="EK12" s="2">
+        <v>76</v>
+      </c>
+      <c r="EL12" s="2">
+        <v>76</v>
+      </c>
+      <c r="EM12" s="2">
+        <v>75</v>
+      </c>
+      <c r="EN12" s="2">
+        <v>69</v>
+      </c>
+      <c r="EO12" s="2">
+        <v>70</v>
+      </c>
+      <c r="EP12" s="2">
+        <v>69</v>
+      </c>
+      <c r="EQ12" s="2">
+        <v>63</v>
+      </c>
+      <c r="ER12" s="2">
+        <v>65</v>
+      </c>
+      <c r="ES12" s="2">
+        <v>57</v>
+      </c>
+      <c r="ET12" s="2">
+        <v>57</v>
+      </c>
+      <c r="EU12" s="2">
+        <v>65</v>
+      </c>
+      <c r="EV12" s="2">
+        <v>55</v>
+      </c>
+      <c r="EW12" s="2">
+        <v>57</v>
+      </c>
+      <c r="EX12" s="2">
+        <v>59</v>
+      </c>
+      <c r="EY12" s="2">
+        <v>64</v>
+      </c>
+      <c r="EZ12" s="2">
+        <v>54</v>
+      </c>
+      <c r="FA12" s="2">
+        <v>112</v>
+      </c>
+      <c r="FB12" s="2">
+        <v>105</v>
+      </c>
+      <c r="FC12" s="2">
+        <v>103</v>
+      </c>
+      <c r="FD12" s="2">
+        <v>76</v>
+      </c>
+      <c r="FE12" s="2">
+        <v>74</v>
+      </c>
+      <c r="FF12" s="2">
+        <v>76</v>
+      </c>
+      <c r="FG12" s="2">
+        <v>64</v>
+      </c>
+      <c r="FH12" s="2">
+        <v>66</v>
+      </c>
+      <c r="FI12" s="2">
+        <v>56</v>
+      </c>
+      <c r="FJ12" s="2">
+        <v>59</v>
+      </c>
+      <c r="FK12" s="2">
+        <v>58</v>
+      </c>
+      <c r="FL12" s="2">
+        <v>54</v>
+      </c>
+      <c r="FM12" s="2">
+        <v>54</v>
+      </c>
+      <c r="FN12" s="2">
+        <v>44</v>
+      </c>
+      <c r="FO12" s="2">
+        <v>39</v>
+      </c>
+      <c r="FP12" s="2">
+        <v>34</v>
+      </c>
+      <c r="FQ12" s="2">
+        <v>25</v>
+      </c>
+      <c r="FR12" s="2">
+        <v>83</v>
+      </c>
+      <c r="FS12" s="2">
+        <v>74</v>
+      </c>
+      <c r="FT12" s="2">
+        <v>79</v>
+      </c>
+      <c r="FU12" s="2">
+        <v>77</v>
+      </c>
+      <c r="FV12" s="2">
+        <v>64</v>
+      </c>
+      <c r="FW12" s="2">
+        <v>74</v>
+      </c>
+      <c r="FX12" s="2">
+        <v>63</v>
+      </c>
+      <c r="FY12" s="2">
+        <v>67</v>
+      </c>
+      <c r="FZ12" s="2">
+        <v>55</v>
+      </c>
+      <c r="GA12" s="2">
+        <v>53</v>
+      </c>
+      <c r="GB12" s="2">
+        <v>52</v>
+      </c>
+      <c r="GC12" s="2">
+        <v>49</v>
+      </c>
+      <c r="GD12" s="2">
+        <v>50</v>
+      </c>
+      <c r="GE12" s="2">
+        <v>46</v>
+      </c>
+      <c r="GF12" s="2">
+        <v>51</v>
+      </c>
+      <c r="GG12" s="2">
+        <v>46</v>
+      </c>
+      <c r="GH12" s="2">
+        <v>45</v>
+      </c>
+      <c r="GI12" s="2">
+        <v>859</v>
+      </c>
+      <c r="GJ12" s="2">
+        <v>780</v>
+      </c>
+      <c r="GK12" s="2">
+        <v>750</v>
+      </c>
+      <c r="GL12" s="2">
+        <v>596</v>
+      </c>
+      <c r="GM12" s="2">
+        <v>598</v>
+      </c>
+      <c r="GN12" s="2">
+        <v>628</v>
+      </c>
+      <c r="GO12" s="2">
+        <v>595</v>
+      </c>
+      <c r="GP12" s="2">
+        <v>603</v>
+      </c>
+      <c r="GQ12" s="2">
+        <v>553</v>
+      </c>
+      <c r="GR12" s="2">
+        <v>527</v>
+      </c>
+      <c r="GS12" s="2">
+        <v>540</v>
+      </c>
+      <c r="GT12" s="2">
+        <v>508</v>
+      </c>
+      <c r="GU12" s="2">
+        <v>477</v>
+      </c>
+      <c r="GV12" s="2">
+        <v>456</v>
+      </c>
+      <c r="GW12" s="2">
+        <v>450</v>
+      </c>
+      <c r="GX12" s="2">
+        <v>464</v>
+      </c>
+      <c r="GY12" s="2">
+        <v>435</v>
+      </c>
+      <c r="GZ12" s="2">
+        <v>437</v>
+      </c>
+      <c r="HA12" s="2">
+        <v>404</v>
+      </c>
+      <c r="HB12" s="2">
+        <v>351</v>
+      </c>
+      <c r="HC12" s="2">
+        <v>282</v>
+      </c>
+      <c r="HD12" s="2">
+        <v>282</v>
+      </c>
+      <c r="HE12" s="2">
+        <v>297</v>
+      </c>
+      <c r="HF12" s="2">
+        <v>283</v>
+      </c>
+      <c r="HG12" s="2">
+        <v>289</v>
+      </c>
+      <c r="HH12" s="2">
+        <v>279</v>
+      </c>
+      <c r="HI12" s="2">
+        <v>266</v>
+      </c>
+      <c r="HJ12" s="2">
+        <v>263</v>
+      </c>
+      <c r="HK12" s="2">
+        <v>232</v>
+      </c>
+      <c r="HL12" s="2">
+        <v>214</v>
+      </c>
+      <c r="HM12" s="2">
+        <v>209</v>
+      </c>
+      <c r="HN12" s="2">
+        <v>204</v>
+      </c>
+      <c r="HO12" s="2">
+        <v>189</v>
+      </c>
+      <c r="HP12" s="2">
+        <v>201</v>
+      </c>
+      <c r="HQ12" s="2"/>
     </row>
     <row r="13" spans="1:228" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -7325,18 +8660,1346 @@
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2">
+        <v>121</v>
+      </c>
+      <c r="E13" s="2">
+        <v>120</v>
+      </c>
+      <c r="F13" s="2">
+        <v>112</v>
+      </c>
+      <c r="G13" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2">
+        <v>92</v>
+      </c>
+      <c r="I13" s="2">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2">
+        <v>79</v>
+      </c>
+      <c r="K13" s="2">
+        <v>70</v>
+      </c>
+      <c r="L13" s="2">
+        <v>63</v>
+      </c>
+      <c r="M13" s="2">
+        <v>62</v>
+      </c>
+      <c r="N13" s="2">
+        <v>56</v>
+      </c>
+      <c r="O13" s="2">
+        <v>51</v>
+      </c>
+      <c r="P13" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>43</v>
+      </c>
+      <c r="R13" s="2">
+        <v>41</v>
+      </c>
+      <c r="S13" s="2">
+        <v>36</v>
+      </c>
+      <c r="T13" s="2">
+        <v>37</v>
+      </c>
+      <c r="U13" s="2">
+        <v>4</v>
+      </c>
+      <c r="V13" s="2">
+        <v>5</v>
+      </c>
+      <c r="W13" s="2">
+        <v>5</v>
+      </c>
+      <c r="X13" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>6</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>5</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>5</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>5</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>5</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>5</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>5</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>4</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>2</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>3</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>7</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>6</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>5</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>6</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>7</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>7</v>
+      </c>
+      <c r="BZ13" s="2">
+        <v>7</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>7</v>
+      </c>
+      <c r="CB13" s="2">
+        <v>5</v>
+      </c>
+      <c r="CC13" s="2">
+        <v>5</v>
+      </c>
+      <c r="CD13" s="2">
+        <v>4</v>
+      </c>
+      <c r="CE13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CF13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CH13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CI13" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CL13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO13" s="2">
+        <v>4</v>
+      </c>
+      <c r="CP13" s="2">
+        <v>4</v>
+      </c>
+      <c r="CQ13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CR13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CS13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CT13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CU13" s="2">
+        <v>1</v>
+      </c>
+      <c r="CV13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CW13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CX13" s="2">
+        <v>2</v>
+      </c>
+      <c r="CY13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CZ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="DA13" s="2">
+        <v>2</v>
+      </c>
+      <c r="DB13" s="2">
+        <v>21</v>
+      </c>
+      <c r="DC13" s="2">
+        <v>22</v>
+      </c>
+      <c r="DD13" s="2">
+        <v>21</v>
+      </c>
+      <c r="DE13" s="2">
+        <v>8</v>
+      </c>
+      <c r="DF13" s="2">
+        <v>12</v>
+      </c>
+      <c r="DG13" s="2">
+        <v>13</v>
+      </c>
+      <c r="DH13" s="2">
+        <v>11</v>
+      </c>
+      <c r="DI13" s="2">
+        <v>10</v>
+      </c>
+      <c r="DJ13" s="2">
+        <v>8</v>
+      </c>
+      <c r="DK13" s="2">
+        <v>7</v>
+      </c>
+      <c r="DL13" s="2">
+        <v>7</v>
+      </c>
+      <c r="DM13" s="2">
+        <v>5</v>
+      </c>
+      <c r="DN13" s="2">
+        <v>5</v>
+      </c>
+      <c r="DO13" s="2">
+        <v>4</v>
+      </c>
+      <c r="DP13" s="2">
+        <v>5</v>
+      </c>
+      <c r="DQ13" s="2">
+        <v>3</v>
+      </c>
+      <c r="DR13" s="2">
+        <v>3</v>
+      </c>
+      <c r="DS13" s="2">
+        <v>1</v>
+      </c>
+      <c r="DT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU13" s="2">
+        <v>1</v>
+      </c>
+      <c r="DV13" s="2">
+        <v>1</v>
+      </c>
+      <c r="DW13" s="2">
+        <v>1</v>
+      </c>
+      <c r="DX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="ED13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="ER13" s="2">
+        <v>0</v>
+      </c>
+      <c r="ES13" s="2">
+        <v>0</v>
+      </c>
+      <c r="ET13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EW13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="EZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FD13" s="2">
+        <v>1</v>
+      </c>
+      <c r="FE13" s="2">
+        <v>2</v>
+      </c>
+      <c r="FF13" s="2">
+        <v>1</v>
+      </c>
+      <c r="FG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="FH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FK13" s="2">
+        <v>1</v>
+      </c>
+      <c r="FL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FR13" s="2">
+        <v>2</v>
+      </c>
+      <c r="FS13" s="2">
+        <v>2</v>
+      </c>
+      <c r="FT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FW13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="GA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="GB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="GC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="GD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="GE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="GG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="GI13" s="2">
+        <v>17</v>
+      </c>
+      <c r="GJ13" s="2">
+        <v>19</v>
+      </c>
+      <c r="GK13" s="2">
+        <v>16</v>
+      </c>
+      <c r="GL13" s="2">
+        <v>13</v>
+      </c>
+      <c r="GM13" s="2">
+        <v>16</v>
+      </c>
+      <c r="GN13" s="2">
+        <v>16</v>
+      </c>
+      <c r="GO13" s="2">
+        <v>13</v>
+      </c>
+      <c r="GP13" s="2">
+        <v>12</v>
+      </c>
+      <c r="GQ13" s="2">
+        <v>13</v>
+      </c>
+      <c r="GR13" s="2">
+        <v>13</v>
+      </c>
+      <c r="GS13" s="2">
+        <v>11</v>
+      </c>
+      <c r="GT13" s="2">
+        <v>7</v>
+      </c>
+      <c r="GU13" s="2">
+        <v>7</v>
+      </c>
+      <c r="GV13" s="2">
+        <v>7</v>
+      </c>
+      <c r="GW13" s="2">
+        <v>7</v>
+      </c>
+      <c r="GX13" s="2">
+        <v>8</v>
+      </c>
+      <c r="GY13" s="2">
+        <v>9</v>
+      </c>
+      <c r="GZ13" s="2">
+        <v>60</v>
+      </c>
+      <c r="HA13" s="2">
+        <v>58</v>
+      </c>
+      <c r="HB13" s="2">
+        <v>55</v>
+      </c>
+      <c r="HC13" s="2">
+        <v>38</v>
+      </c>
+      <c r="HD13" s="2">
+        <v>39</v>
+      </c>
+      <c r="HE13" s="2">
+        <v>37</v>
+      </c>
+      <c r="HF13" s="2">
+        <v>35</v>
+      </c>
+      <c r="HG13" s="2">
+        <v>32</v>
+      </c>
+      <c r="HH13" s="2">
+        <v>29</v>
+      </c>
+      <c r="HI13" s="2">
+        <v>28</v>
+      </c>
+      <c r="HJ13" s="2">
+        <v>26</v>
+      </c>
+      <c r="HK13" s="2">
+        <v>27</v>
+      </c>
+      <c r="HL13" s="2">
+        <v>24</v>
+      </c>
+      <c r="HM13" s="2">
+        <v>24</v>
+      </c>
+      <c r="HN13" s="2">
+        <v>21</v>
+      </c>
+      <c r="HO13" s="2">
+        <v>20</v>
+      </c>
+      <c r="HP13" s="2">
+        <v>18</v>
+      </c>
+      <c r="HQ13" s="2"/>
     </row>
     <row r="14" spans="1:228" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2">
+        <v>631</v>
+      </c>
+      <c r="E14" s="2">
+        <v>583</v>
+      </c>
+      <c r="F14" s="2">
+        <v>549</v>
+      </c>
+      <c r="G14" s="2">
+        <v>507</v>
+      </c>
+      <c r="H14" s="2">
+        <v>479</v>
+      </c>
+      <c r="I14" s="2">
+        <v>499</v>
+      </c>
+      <c r="J14" s="2">
+        <v>478</v>
+      </c>
+      <c r="K14" s="2">
+        <v>441</v>
+      </c>
+      <c r="L14" s="2">
+        <v>406</v>
+      </c>
+      <c r="M14" s="2">
+        <v>404</v>
+      </c>
+      <c r="N14" s="2">
+        <v>368</v>
+      </c>
+      <c r="O14" s="2">
+        <v>351</v>
+      </c>
+      <c r="P14" s="2">
+        <v>322</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>303</v>
+      </c>
+      <c r="R14" s="2">
+        <v>306</v>
+      </c>
+      <c r="S14" s="2">
+        <v>293</v>
+      </c>
+      <c r="T14" s="2">
+        <v>277</v>
+      </c>
+      <c r="U14" s="2">
+        <v>13</v>
+      </c>
+      <c r="V14" s="2">
+        <v>16</v>
+      </c>
+      <c r="W14" s="2">
+        <v>14</v>
+      </c>
+      <c r="X14" s="2">
+        <v>18</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>8</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>8</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>8</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>7</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>6</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>6</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>10</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>12</v>
+      </c>
+      <c r="BE14" s="2">
+        <v>11</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>13</v>
+      </c>
+      <c r="BG14" s="2">
+        <v>12</v>
+      </c>
+      <c r="BH14" s="2">
+        <v>12</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>12</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>12</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>13</v>
+      </c>
+      <c r="BL14" s="2">
+        <v>12</v>
+      </c>
+      <c r="BM14" s="2">
+        <v>10</v>
+      </c>
+      <c r="BN14" s="2">
+        <v>10</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>7</v>
+      </c>
+      <c r="BP14" s="2">
+        <v>5</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>7</v>
+      </c>
+      <c r="BR14" s="2">
+        <v>7</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>5</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>62</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>61</v>
+      </c>
+      <c r="BV14" s="2">
+        <v>52</v>
+      </c>
+      <c r="BW14" s="2">
+        <v>48</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>41</v>
+      </c>
+      <c r="BY14" s="2">
+        <v>47</v>
+      </c>
+      <c r="BZ14" s="2">
+        <v>52</v>
+      </c>
+      <c r="CA14" s="2">
+        <v>35</v>
+      </c>
+      <c r="CB14" s="2">
+        <v>34</v>
+      </c>
+      <c r="CC14" s="2">
+        <v>31</v>
+      </c>
+      <c r="CD14" s="2">
+        <v>31</v>
+      </c>
+      <c r="CE14" s="2">
+        <v>26</v>
+      </c>
+      <c r="CF14" s="2">
+        <v>27</v>
+      </c>
+      <c r="CG14" s="2">
+        <v>25</v>
+      </c>
+      <c r="CH14" s="2">
+        <v>26</v>
+      </c>
+      <c r="CI14" s="2">
+        <v>22</v>
+      </c>
+      <c r="CJ14" s="2">
+        <v>21</v>
+      </c>
+      <c r="CK14" s="2">
+        <v>20</v>
+      </c>
+      <c r="CL14" s="2">
+        <v>22</v>
+      </c>
+      <c r="CM14" s="2">
+        <v>22</v>
+      </c>
+      <c r="CN14" s="2">
+        <v>19</v>
+      </c>
+      <c r="CO14" s="2">
+        <v>21</v>
+      </c>
+      <c r="CP14" s="2">
+        <v>22</v>
+      </c>
+      <c r="CQ14" s="2">
+        <v>21</v>
+      </c>
+      <c r="CR14" s="2">
+        <v>23</v>
+      </c>
+      <c r="CS14" s="2">
+        <v>21</v>
+      </c>
+      <c r="CT14" s="2">
+        <v>20</v>
+      </c>
+      <c r="CU14" s="2">
+        <v>20</v>
+      </c>
+      <c r="CV14" s="2">
+        <v>16</v>
+      </c>
+      <c r="CW14" s="2">
+        <v>17</v>
+      </c>
+      <c r="CX14" s="2">
+        <v>14</v>
+      </c>
+      <c r="CY14" s="2">
+        <v>12</v>
+      </c>
+      <c r="CZ14" s="2">
+        <v>14</v>
+      </c>
+      <c r="DA14" s="2">
+        <v>12</v>
+      </c>
+      <c r="DB14" s="2">
+        <v>181</v>
+      </c>
+      <c r="DC14" s="2">
+        <v>156</v>
+      </c>
+      <c r="DD14" s="2">
+        <v>152</v>
+      </c>
+      <c r="DE14" s="2">
+        <v>129</v>
+      </c>
+      <c r="DF14" s="2">
+        <v>115</v>
+      </c>
+      <c r="DG14" s="2">
+        <v>134</v>
+      </c>
+      <c r="DH14" s="2">
+        <v>130</v>
+      </c>
+      <c r="DI14" s="2">
+        <v>121</v>
+      </c>
+      <c r="DJ14" s="2">
+        <v>108</v>
+      </c>
+      <c r="DK14" s="2">
+        <v>101</v>
+      </c>
+      <c r="DL14" s="2">
+        <v>102</v>
+      </c>
+      <c r="DM14" s="2">
+        <v>95</v>
+      </c>
+      <c r="DN14" s="2">
+        <v>87</v>
+      </c>
+      <c r="DO14" s="2">
+        <v>81</v>
+      </c>
+      <c r="DP14" s="2">
+        <v>83</v>
+      </c>
+      <c r="DQ14" s="2">
+        <v>82</v>
+      </c>
+      <c r="DR14" s="2">
+        <v>85</v>
+      </c>
+      <c r="DS14" s="2">
+        <v>21</v>
+      </c>
+      <c r="DT14" s="2">
+        <v>18</v>
+      </c>
+      <c r="DU14" s="2">
+        <v>14</v>
+      </c>
+      <c r="DV14" s="2">
+        <v>11</v>
+      </c>
+      <c r="DW14" s="2">
+        <v>10</v>
+      </c>
+      <c r="DX14" s="2">
+        <v>14</v>
+      </c>
+      <c r="DY14" s="2">
+        <v>9</v>
+      </c>
+      <c r="DZ14" s="2">
+        <v>11</v>
+      </c>
+      <c r="EA14" s="2">
+        <v>11</v>
+      </c>
+      <c r="EB14" s="2">
+        <v>13</v>
+      </c>
+      <c r="EC14" s="2">
+        <v>5</v>
+      </c>
+      <c r="ED14" s="2">
+        <v>10</v>
+      </c>
+      <c r="EE14" s="2">
+        <v>7</v>
+      </c>
+      <c r="EF14" s="2">
+        <v>7</v>
+      </c>
+      <c r="EG14" s="2">
+        <v>10</v>
+      </c>
+      <c r="EH14" s="2">
+        <v>9</v>
+      </c>
+      <c r="EI14" s="2">
+        <v>5</v>
+      </c>
+      <c r="EJ14" s="2">
+        <v>10</v>
+      </c>
+      <c r="EK14" s="2">
+        <v>6</v>
+      </c>
+      <c r="EL14" s="2">
+        <v>7</v>
+      </c>
+      <c r="EM14" s="2">
+        <v>4</v>
+      </c>
+      <c r="EN14" s="2">
+        <v>5</v>
+      </c>
+      <c r="EO14" s="2">
+        <v>3</v>
+      </c>
+      <c r="EP14" s="2">
+        <v>2</v>
+      </c>
+      <c r="EQ14" s="2">
+        <v>4</v>
+      </c>
+      <c r="ER14" s="2">
+        <v>7</v>
+      </c>
+      <c r="ES14" s="2">
+        <v>7</v>
+      </c>
+      <c r="ET14" s="2">
+        <v>6</v>
+      </c>
+      <c r="EU14" s="2">
+        <v>3</v>
+      </c>
+      <c r="EV14" s="2">
+        <v>1</v>
+      </c>
+      <c r="EW14" s="2">
+        <v>0</v>
+      </c>
+      <c r="EX14" s="2">
+        <v>0</v>
+      </c>
+      <c r="EY14" s="2">
+        <v>1</v>
+      </c>
+      <c r="EZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="FA14" s="2">
+        <v>21</v>
+      </c>
+      <c r="FB14" s="2">
+        <v>20</v>
+      </c>
+      <c r="FC14" s="2">
+        <v>17</v>
+      </c>
+      <c r="FD14" s="2">
+        <v>23</v>
+      </c>
+      <c r="FE14" s="2">
+        <v>23</v>
+      </c>
+      <c r="FF14" s="2">
+        <v>24</v>
+      </c>
+      <c r="FG14" s="2">
+        <v>16</v>
+      </c>
+      <c r="FH14" s="2">
+        <v>13</v>
+      </c>
+      <c r="FI14" s="2">
+        <v>14</v>
+      </c>
+      <c r="FJ14" s="2">
+        <v>17</v>
+      </c>
+      <c r="FK14" s="2">
+        <v>16</v>
+      </c>
+      <c r="FL14" s="2">
+        <v>17</v>
+      </c>
+      <c r="FM14" s="2">
+        <v>13</v>
+      </c>
+      <c r="FN14" s="2">
+        <v>13</v>
+      </c>
+      <c r="FO14" s="2">
+        <v>10</v>
+      </c>
+      <c r="FP14" s="2">
+        <v>8</v>
+      </c>
+      <c r="FQ14" s="2">
+        <v>8</v>
+      </c>
+      <c r="FR14" s="2">
+        <v>16</v>
+      </c>
+      <c r="FS14" s="2">
+        <v>13</v>
+      </c>
+      <c r="FT14" s="2">
+        <v>12</v>
+      </c>
+      <c r="FU14" s="2">
+        <v>14</v>
+      </c>
+      <c r="FV14" s="2">
+        <v>11</v>
+      </c>
+      <c r="FW14" s="2">
+        <v>9</v>
+      </c>
+      <c r="FX14" s="2">
+        <v>12</v>
+      </c>
+      <c r="FY14" s="2">
+        <v>11</v>
+      </c>
+      <c r="FZ14" s="2">
+        <v>9</v>
+      </c>
+      <c r="GA14" s="2">
+        <v>11</v>
+      </c>
+      <c r="GB14" s="2">
+        <v>8</v>
+      </c>
+      <c r="GC14" s="2">
+        <v>8</v>
+      </c>
+      <c r="GD14" s="2">
+        <v>6</v>
+      </c>
+      <c r="GE14" s="2">
+        <v>6</v>
+      </c>
+      <c r="GF14" s="2">
+        <v>7</v>
+      </c>
+      <c r="GG14" s="2">
+        <v>6</v>
+      </c>
+      <c r="GH14" s="2">
+        <v>8</v>
+      </c>
+      <c r="GI14" s="2">
+        <v>215</v>
+      </c>
+      <c r="GJ14" s="2">
+        <v>198</v>
+      </c>
+      <c r="GK14" s="2">
+        <v>190</v>
+      </c>
+      <c r="GL14" s="2">
+        <v>172</v>
+      </c>
+      <c r="GM14" s="2">
+        <v>171</v>
+      </c>
+      <c r="GN14" s="2">
+        <v>171</v>
+      </c>
+      <c r="GO14" s="2">
+        <v>167</v>
+      </c>
+      <c r="GP14" s="2">
+        <v>153</v>
+      </c>
+      <c r="GQ14" s="2">
+        <v>135</v>
+      </c>
+      <c r="GR14" s="2">
+        <v>131</v>
+      </c>
+      <c r="GS14" s="2">
+        <v>115</v>
+      </c>
+      <c r="GT14" s="2">
+        <v>111</v>
+      </c>
+      <c r="GU14" s="2">
+        <v>105</v>
+      </c>
+      <c r="GV14" s="2">
+        <v>103</v>
+      </c>
+      <c r="GW14" s="2">
+        <v>102</v>
+      </c>
+      <c r="GX14" s="2">
+        <v>100</v>
+      </c>
+      <c r="GY14" s="2">
+        <v>93</v>
+      </c>
+      <c r="GZ14" s="2">
+        <v>50</v>
+      </c>
+      <c r="HA14" s="2">
+        <v>52</v>
+      </c>
+      <c r="HB14" s="2">
+        <v>50</v>
+      </c>
+      <c r="HC14" s="2">
+        <v>47</v>
+      </c>
+      <c r="HD14" s="2">
+        <v>47</v>
+      </c>
+      <c r="HE14" s="2">
+        <v>46</v>
+      </c>
+      <c r="HF14" s="2">
+        <v>41</v>
+      </c>
+      <c r="HG14" s="2">
+        <v>45</v>
+      </c>
+      <c r="HH14" s="2">
+        <v>44</v>
+      </c>
+      <c r="HI14" s="2">
+        <v>44</v>
+      </c>
+      <c r="HJ14" s="2">
+        <v>42</v>
+      </c>
+      <c r="HK14" s="2">
+        <v>41</v>
+      </c>
+      <c r="HL14" s="2">
+        <v>40</v>
+      </c>
+      <c r="HM14" s="2">
+        <v>39</v>
+      </c>
+      <c r="HN14" s="2">
+        <v>37</v>
+      </c>
+      <c r="HO14" s="2">
+        <v>33</v>
+      </c>
+      <c r="HP14" s="2">
+        <v>29</v>
+      </c>
+      <c r="HQ14" s="2"/>
     </row>
     <row r="15" spans="1:228" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -7344,8 +10007,8 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:228" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -7353,8 +10016,8 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -7362,64 +10025,64 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F26" s="4"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F27" s="4"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F28" s="4"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F29" s="4"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F30" s="4"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F31" s="4"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F32" s="4"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33" s="4"/>
+      <c r="F33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
